--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1315550.411826501</v>
+        <v>1312891.64448227</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673412</v>
+        <v>603248.4937673447</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>11.71242226563631</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.3724806511781</v>
+        <v>413.372480651178</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>319.7065590077675</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.61762021061139</v>
+        <v>28.61762021061075</v>
       </c>
       <c r="S2" t="n">
-        <v>165.0343412988254</v>
+        <v>165.0343412988252</v>
       </c>
       <c r="T2" t="n">
         <v>214.6461501421596</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.30602115925674</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.34245825162051</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.3107386911416</v>
+        <v>87.95826454017808</v>
       </c>
       <c r="H3" t="n">
         <v>102.2609784667768</v>
       </c>
       <c r="I3" t="n">
-        <v>53.83825124728286</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>36.03497428154812</v>
+        <v>36.03497428154778</v>
       </c>
       <c r="S3" t="n">
         <v>152.499763958169</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>160.1152981555843</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>32.14381293290826</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6591826203899</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>138.361771717802</v>
       </c>
       <c r="S4" t="n">
-        <v>208.9272501018717</v>
+        <v>168.5803578225989</v>
       </c>
       <c r="T4" t="n">
-        <v>224.246062287177</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2718013504343</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>99.53855996101763</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>138.7304366658958</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95.99319319707901</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>74.52922194059541</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
@@ -1072,10 +1072,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>88.71008901602664</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>196.0797462605931</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>193.8313643740737</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>2.739389635061188</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.98102224012277</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>158.8647187371888</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>326.3226809476791</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238041</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114111</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6087856860861</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458122</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.75316679403511</v>
+        <v>9.753166794035295</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1004521009499</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>83.03621438537695</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146327</v>
+        <v>79.00824149146347</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754647</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001846</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119252</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.0601604013379</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1844,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>44.7513807668926</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>80.67842139643669</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853715</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797025</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>99.97427419833758</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.3870054807228</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.168699193619</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>114.512007517665</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.9742741983378</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179326</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>35.88641949135621</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599953</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>103.1686991936192</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>838.8911749897177</v>
+        <v>798.6761657605859</v>
       </c>
       <c r="C2" t="n">
-        <v>838.8911749897177</v>
+        <v>798.6761657605859</v>
       </c>
       <c r="D2" t="n">
-        <v>480.6254763829672</v>
+        <v>798.6761657605859</v>
       </c>
       <c r="E2" t="n">
-        <v>480.6254763829672</v>
+        <v>798.6761657605859</v>
       </c>
       <c r="F2" t="n">
-        <v>468.7947468217184</v>
+        <v>791.7306650113825</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>374.1827047576673</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,25 +4328,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>201.6068472291336</v>
+        <v>201.6068472291345</v>
       </c>
       <c r="K2" t="n">
-        <v>464.3010004505608</v>
+        <v>547.7024055830414</v>
       </c>
       <c r="L2" t="n">
-        <v>945.9397719935231</v>
+        <v>1029.341177126005</v>
       </c>
       <c r="M2" t="n">
-        <v>1498.462252664082</v>
+        <v>1581.863657796566</v>
       </c>
       <c r="N2" t="n">
-        <v>2045.293127170547</v>
+        <v>1848.822353734483</v>
       </c>
       <c r="O2" t="n">
-        <v>2516.462377838358</v>
+        <v>2319.991604402296</v>
       </c>
       <c r="P2" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.868554964095</v>
       </c>
       <c r="Q2" t="n">
         <v>2562.339328400155</v>
@@ -4355,25 +4355,25 @@
         <v>2533.43264131873</v>
       </c>
       <c r="S2" t="n">
-        <v>2366.731286471431</v>
+        <v>2366.731286471432</v>
       </c>
       <c r="T2" t="n">
-        <v>2149.916993398543</v>
+        <v>2149.916993398544</v>
       </c>
       <c r="U2" t="n">
-        <v>1896.188475864482</v>
+        <v>1896.188475864483</v>
       </c>
       <c r="V2" t="n">
-        <v>1565.125588520912</v>
+        <v>1565.125588520913</v>
       </c>
       <c r="W2" t="n">
         <v>1212.356933250798</v>
       </c>
       <c r="X2" t="n">
-        <v>838.8911749897177</v>
+        <v>1188.815497736398</v>
       </c>
       <c r="Y2" t="n">
-        <v>838.8911749897177</v>
+        <v>798.6761657605859</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>975.7698429386502</v>
+        <v>872.5468879909265</v>
       </c>
       <c r="C3" t="n">
-        <v>801.3168136575232</v>
+        <v>698.0938587097995</v>
       </c>
       <c r="D3" t="n">
-        <v>652.3824039962719</v>
+        <v>549.1594490485483</v>
       </c>
       <c r="E3" t="n">
-        <v>493.1449489908164</v>
+        <v>389.9219940430928</v>
       </c>
       <c r="F3" t="n">
-        <v>346.6103910177014</v>
+        <v>243.3874360699777</v>
       </c>
       <c r="G3" t="n">
-        <v>208.9227761781644</v>
+        <v>154.540704211212</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6288585349555</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>147.1068289452328</v>
+        <v>147.1068289452333</v>
       </c>
       <c r="K3" t="n">
-        <v>437.5677528456362</v>
+        <v>175.7471682031847</v>
       </c>
       <c r="L3" t="n">
-        <v>889.5327064209202</v>
+        <v>627.71212177847</v>
       </c>
       <c r="M3" t="n">
-        <v>1468.933711073935</v>
+        <v>1207.113126431487</v>
       </c>
       <c r="N3" t="n">
-        <v>1692.43217151705</v>
+        <v>1817.556165003628</v>
       </c>
       <c r="O3" t="n">
-        <v>2184.452613831658</v>
+        <v>2299.821262918413</v>
       </c>
       <c r="P3" t="n">
-        <v>2562.339328400155</v>
+        <v>2362.429836533373</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,10 +4440,10 @@
         <v>2173.918474930178</v>
       </c>
       <c r="U3" t="n">
-        <v>1945.763488941425</v>
+        <v>1945.763488941426</v>
       </c>
       <c r="V3" t="n">
-        <v>1710.611380709682</v>
+        <v>1710.611380709683</v>
       </c>
       <c r="W3" t="n">
         <v>1456.374023981481</v>
@@ -4452,7 +4452,7 @@
         <v>1248.522523775948</v>
       </c>
       <c r="Y3" t="n">
-        <v>1040.762225010994</v>
+        <v>1040.762225010995</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.4479088796118</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>245.4479088796118</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>245.4479088796118</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>245.4479088796118</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>245.4479088796118</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>83.71528448003166</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>83.71528448003166</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>83.71528448003166</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="K4" t="n">
-        <v>128.7896860320423</v>
+        <v>128.7896860320429</v>
       </c>
       <c r="L4" t="n">
-        <v>283.5443348630872</v>
+        <v>283.5443348630885</v>
       </c>
       <c r="M4" t="n">
-        <v>457.1005369470613</v>
+        <v>457.1005369470633</v>
       </c>
       <c r="N4" t="n">
-        <v>631.9645768845171</v>
+        <v>631.9645768845198</v>
       </c>
       <c r="O4" t="n">
-        <v>777.4635248172741</v>
+        <v>777.4635248172774</v>
       </c>
       <c r="P4" t="n">
-        <v>878.4423282648401</v>
+        <v>878.4423282648439</v>
       </c>
       <c r="Q4" t="n">
-        <v>864.6451741028301</v>
+        <v>878.4423282648439</v>
       </c>
       <c r="R4" t="n">
-        <v>864.6451741028301</v>
+        <v>738.6829628933267</v>
       </c>
       <c r="S4" t="n">
-        <v>653.6075477373031</v>
+        <v>568.3997731735299</v>
       </c>
       <c r="T4" t="n">
-        <v>427.0963737098515</v>
+        <v>568.3997731735299</v>
       </c>
       <c r="U4" t="n">
-        <v>427.0963737098515</v>
+        <v>279.2363374660205</v>
       </c>
       <c r="V4" t="n">
-        <v>427.0963737098515</v>
+        <v>279.2363374660205</v>
       </c>
       <c r="W4" t="n">
-        <v>427.0963737098515</v>
+        <v>279.2363374660205</v>
       </c>
       <c r="X4" t="n">
-        <v>427.0963737098515</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="Y4" t="n">
-        <v>427.0963737098515</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1348.826990022219</v>
+        <v>980.7612922789126</v>
       </c>
       <c r="C5" t="n">
-        <v>979.8644730818071</v>
+        <v>980.7612922789126</v>
       </c>
       <c r="D5" t="n">
-        <v>879.3204731211832</v>
+        <v>980.7612922789126</v>
       </c>
       <c r="E5" t="n">
-        <v>879.3204731211832</v>
+        <v>594.9730396806683</v>
       </c>
       <c r="F5" t="n">
-        <v>468.3345683315757</v>
+        <v>183.9871348910608</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4574,16 +4574,16 @@
         <v>875.263098402531</v>
       </c>
       <c r="M5" t="n">
-        <v>1061.962511227939</v>
+        <v>1356.544744380206</v>
       </c>
       <c r="N5" t="n">
-        <v>1340.687116518883</v>
+        <v>1550.878957272188</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>2098.040162039266</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625255</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4595,22 +4595,22 @@
         <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2406.124290896983</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="U5" t="n">
-        <v>2406.124290896983</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="V5" t="n">
-        <v>2075.061403553413</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="W5" t="n">
-        <v>1722.292748283299</v>
+        <v>1507.49288655101</v>
       </c>
       <c r="X5" t="n">
-        <v>1348.826990022219</v>
+        <v>1507.49288655101</v>
       </c>
       <c r="Y5" t="n">
-        <v>1348.826990022219</v>
+        <v>1367.361132343034</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
         <v>335.5090190736601</v>
@@ -4644,25 +4644,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>118.8546062313602</v>
       </c>
       <c r="L6" t="n">
-        <v>1003.695982596827</v>
+        <v>623.2161460974787</v>
       </c>
       <c r="M6" t="n">
-        <v>1183.193318951432</v>
+        <v>1257.395129876517</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.14579119009</v>
+        <v>1891.574113655556</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>2115.634618717342</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339688</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>312.9821679488397</v>
+        <v>205.501429668238</v>
       </c>
       <c r="C7" t="n">
-        <v>312.9821679488397</v>
+        <v>205.501429668238</v>
       </c>
       <c r="D7" t="n">
-        <v>312.9821679488397</v>
+        <v>205.501429668238</v>
       </c>
       <c r="E7" t="n">
-        <v>312.9821679488397</v>
+        <v>205.501429668238</v>
       </c>
       <c r="F7" t="n">
-        <v>312.9821679488397</v>
+        <v>205.501429668238</v>
       </c>
       <c r="G7" t="n">
-        <v>312.9821679488397</v>
+        <v>205.501429668238</v>
       </c>
       <c r="H7" t="n">
-        <v>158.7275248486048</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>722.6431569885756</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>722.6431569885756</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.181468027348</v>
+        <v>433.4909805662554</v>
       </c>
       <c r="V7" t="n">
-        <v>1051.181468027348</v>
+        <v>433.4909805662554</v>
       </c>
       <c r="W7" t="n">
-        <v>761.7642979903871</v>
+        <v>433.4909805662554</v>
       </c>
       <c r="X7" t="n">
-        <v>533.7747470923698</v>
+        <v>205.501429668238</v>
       </c>
       <c r="Y7" t="n">
-        <v>312.9821679488397</v>
+        <v>205.501429668238</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1114.902695549579</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C8" t="n">
-        <v>1114.902695549579</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>1114.902695549579</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>729.1144429513347</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,25 +4802,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1599.080600298115</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4884,7 +4884,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143501</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
         <v>884.9085321458217</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1373.393300724232</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1084.27496322807</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>601.600924124166</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2224.625962016631</v>
+        <v>1563.167068012547</v>
       </c>
       <c r="C11" t="n">
-        <v>1855.663445076219</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="D11" t="n">
-        <v>1497.397746469469</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="E11" t="n">
-        <v>1111.609493871225</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="F11" t="n">
-        <v>700.6235890816173</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469199</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469199</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420335</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301227</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878113</v>
+        <v>1851.484858878108</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.18066176543</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687107</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.04835985629</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882248</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234599</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234599</v>
+        <v>3826.588132455657</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.553311234599</v>
+        <v>3622.786021971437</v>
       </c>
       <c r="U11" t="n">
-        <v>3672.062594867208</v>
+        <v>3369.295305604046</v>
       </c>
       <c r="V11" t="n">
-        <v>3340.999707523637</v>
+        <v>3038.232418260475</v>
       </c>
       <c r="W11" t="n">
-        <v>2988.231052253523</v>
+        <v>2685.46376299036</v>
       </c>
       <c r="X11" t="n">
-        <v>2614.765293992443</v>
+        <v>2311.998004729281</v>
       </c>
       <c r="Y11" t="n">
-        <v>2224.625962016631</v>
+        <v>1949.766908076669</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503049</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469199</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792133</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376513</v>
+        <v>477.1621322376497</v>
       </c>
       <c r="L12" t="n">
-        <v>477.1621322376513</v>
+        <v>900.4499396649588</v>
       </c>
       <c r="M12" t="n">
-        <v>990.4759064815416</v>
+        <v>1413.763713908848</v>
       </c>
       <c r="N12" t="n">
-        <v>1531.784213832609</v>
+        <v>1518.698809735875</v>
       </c>
       <c r="O12" t="n">
-        <v>2004.755766698359</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.024069538515</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.934692726466</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.956846689347</v>
+        <v>203.8650582458534</v>
       </c>
       <c r="C13" t="n">
-        <v>919.02066376144</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="D13" t="n">
-        <v>768.9040243491042</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="E13" t="n">
-        <v>620.9909307667112</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="F13" t="n">
-        <v>474.1009832688009</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="G13" t="n">
-        <v>306.6210857453436</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="H13" t="n">
-        <v>162.3860302503256</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469199</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600403</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.455047345771</v>
+        <v>368.4550473457698</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888928</v>
+        <v>717.500225288891</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779223</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542996</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715851</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082524</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551108</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014276</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014276</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>2076.102739014276</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1787.012032454565</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1787.012032454565</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1497.594862417604</v>
+        <v>834.2956531176405</v>
       </c>
       <c r="X13" t="n">
-        <v>1269.605311519587</v>
+        <v>606.3061022196232</v>
       </c>
       <c r="Y13" t="n">
-        <v>1269.605311519587</v>
+        <v>385.5135230760931</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128767</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L15" t="n">
-        <v>570.9683475412853</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1654.758067211686</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1654.758067211686</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>865.6377590212817</v>
+        <v>494.0589900220728</v>
       </c>
       <c r="C16" t="n">
-        <v>696.7015760933748</v>
+        <v>325.1228070941659</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933748</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109817</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130713</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.51642936867</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.51642936867</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2140.837647083052</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1851.761433397779</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1597.076945191892</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1307.659775154931</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1079.670224256914</v>
+        <v>896.5000339958426</v>
       </c>
       <c r="Y16" t="n">
-        <v>1047.286223851521</v>
+        <v>675.7074548523125</v>
       </c>
     </row>
     <row r="17">
@@ -5522,7 +5522,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5592,19 +5592,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,13 +5674,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5753,25 +5753,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770321</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>634.3345878491252</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2179484367895</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>484.2179484367895</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.2179484367895</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.0218491516694</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.3100179938675</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,19 +5911,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,7 +5932,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072718</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400714</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121645</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121645</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,7 +6406,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168601</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362677</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,7 +6634,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536378</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>194.800778399828</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.800778399828</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.800778399828</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>194.800778399828</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138405</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.8686257536378</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257313</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133955</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310024</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142537</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797189</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>874.868625753638</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7193,25 +7193,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2410.714175003132</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2191.112710026074</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026074</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820187</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,7 +7822,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>239.9015690030047</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7988,7 +7988,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>154.6477541407215</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.8596639568141</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,16 +8067,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>88.48926512231529</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>384.0084360445834</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.148508072433742</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8222,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>297.5578112649166</v>
       </c>
       <c r="N5" t="n">
-        <v>85.24282060501184</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>459.2743913378118</v>
       </c>
       <c r="N6" t="n">
-        <v>369.9956874605997</v>
+        <v>439.9214566933068</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>65.20019433638925</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>168.7434581780647</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10355,16 +10355,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>84.10701026597032</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238004</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114088</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>27.62915296996749</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.14636899767795</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>6.678863084963353</v>
+        <v>89.71507747034043</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729286</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.1694538659744</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.5244929507569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,13 +23732,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>103.8640922513198</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.3204386478856</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5874149221288434</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9838267405</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219421</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788631</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.197647871372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864988</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>111.1976478713721</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459345</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194236</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>145.1398665102884</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459317</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854323.8667904634</v>
+        <v>854323.8667904622</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>929791.1209988715</v>
+        <v>929791.120998871</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934927.9732586427</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>934927.9732586426</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586427</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>934927.9732586428</v>
+        <v>934927.9732586426</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185701</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185702</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>442233.6433958228</v>
+        <v>442233.6433958223</v>
       </c>
       <c r="F2" t="n">
-        <v>481607.8629828186</v>
+        <v>481607.8629828183</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
@@ -26341,19 +26341,19 @@
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>677354.8367905978</v>
+        <v>677354.8367906003</v>
       </c>
       <c r="C3" t="n">
-        <v>103193.7034128432</v>
+        <v>103193.7034128409</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357084</v>
+        <v>325187.1190357054</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051364</v>
+        <v>166521.3471051386</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456869</v>
+        <v>84929.59434456796</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848873</v>
+        <v>43782.40655848917</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224912</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220789.5186216384</v>
+        <v>220789.5186216378</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7408.247504413624</v>
       </c>
       <c r="F4" t="n">
-        <v>7500.835840494316</v>
+        <v>7500.835840494315</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26439,25 +26439,25 @@
         <v>7507.36846171968</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719672</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.3684617197</v>
+        <v>7507.368461719674</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719678</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719674</v>
       </c>
       <c r="N4" t="n">
+        <v>7507.368461719714</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="O4" t="n">
-        <v>7507.368461719705</v>
-      </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719626</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83042.45820070512</v>
+        <v>83042.45820070518</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905218</v>
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214726</v>
+        <v>86093.72216214702</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-488561.7516943712</v>
+        <v>-488561.7516943734</v>
       </c>
       <c r="C6" t="n">
-        <v>105605.7870665226</v>
+        <v>105605.7870665248</v>
       </c>
       <c r="D6" t="n">
-        <v>-25111.5835910454</v>
+        <v>-25111.58359104555</v>
       </c>
       <c r="E6" t="n">
-        <v>23544.5546935536</v>
+        <v>23334.59044971144</v>
       </c>
       <c r="F6" t="n">
-        <v>207443.5515233495</v>
+        <v>207397.6465277815</v>
       </c>
       <c r="G6" t="n">
-        <v>364490.8252927981</v>
+        <v>364456.0873673618</v>
       </c>
       <c r="H6" t="n">
-        <v>375658.061528377</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="I6" t="n">
-        <v>375658.0615283767</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="J6" t="n">
-        <v>208052.8837183942</v>
+        <v>208018.1457929585</v>
       </c>
       <c r="K6" t="n">
-        <v>375658.0615283768</v>
+        <v>375623.3236029411</v>
       </c>
       <c r="L6" t="n">
-        <v>375658.0615283768</v>
+        <v>375623.3236029409</v>
       </c>
       <c r="M6" t="n">
-        <v>290728.4671838082</v>
+        <v>290693.7292583732</v>
       </c>
       <c r="N6" t="n">
-        <v>331875.6549698882</v>
+        <v>331840.9170444518</v>
       </c>
       <c r="O6" t="n">
-        <v>372634.7635511521</v>
+        <v>372600.0256257162</v>
       </c>
       <c r="P6" t="n">
-        <v>375658.0615283769</v>
+        <v>375623.3236029411</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.1513949093012</v>
+        <v>480.1513949093038</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26796,10 +26796,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086498</v>
+        <v>981.3883278086469</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.1513949093012</v>
+        <v>480.1513949093038</v>
       </c>
       <c r="C3" t="n">
-        <v>113.3247054287638</v>
+        <v>113.3247054287613</v>
       </c>
       <c r="D3" t="n">
-        <v>340.588791779474</v>
+        <v>340.5887917794741</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770184</v>
+        <v>278.1053753770158</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218283</v>
+        <v>145.8707812218304</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.803495708611</v>
+        <v>340.803495708608</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173571</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.803495708611</v>
+        <v>340.803495708608</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173571</v>
+        <v>178.7569625173589</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364279</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.803495708611</v>
+        <v>340.803495708608</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173571</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>395.1636234760751</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>319.7065590077676</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.059661822704</v>
+        <v>136.0596618227036</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.4250795192123</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.1907253982468</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>48.3524741509635</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>53.83825124728267</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>7.009834425169174</v>
+        <v>167.1251325807534</v>
       </c>
       <c r="H4" t="n">
         <v>154.5290075202052</v>
       </c>
       <c r="I4" t="n">
-        <v>129.4121009213572</v>
+        <v>129.412100921357</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>32.14381293290793</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.65918262038952</v>
       </c>
       <c r="R4" t="n">
-        <v>138.3617717178022</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>40.34689227927282</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>224.246062287177</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2718013504343</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>255.1444816596653</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>247.5075019901578</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.53999045278833</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>70.53999045278847</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55646886339034</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>9.286135639525526</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>213.0446813676377</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>383.4985490209924</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80.85095794181453</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>61.88397726002313</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-9.059419880941277e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.930256863956988</v>
+        <v>1.930256863956999</v>
       </c>
       <c r="H2" t="n">
-        <v>19.76824310799951</v>
+        <v>19.76824310799962</v>
       </c>
       <c r="I2" t="n">
-        <v>74.41622774770187</v>
+        <v>74.41622774770227</v>
       </c>
       <c r="J2" t="n">
-        <v>163.8281385072696</v>
+        <v>163.8281385072705</v>
       </c>
       <c r="K2" t="n">
-        <v>245.535911558569</v>
+        <v>245.5359115585703</v>
       </c>
       <c r="L2" t="n">
-        <v>304.6090100588927</v>
+        <v>304.6090100588943</v>
       </c>
       <c r="M2" t="n">
-        <v>338.9362155632878</v>
+        <v>338.9362155632896</v>
       </c>
       <c r="N2" t="n">
-        <v>344.4205578780056</v>
+        <v>344.4205578780075</v>
       </c>
       <c r="O2" t="n">
-        <v>325.2265661870333</v>
+        <v>325.226566187035</v>
       </c>
       <c r="P2" t="n">
-        <v>277.5733498580951</v>
+        <v>277.5733498580966</v>
       </c>
       <c r="Q2" t="n">
-        <v>208.4460259176354</v>
+        <v>208.4460259176365</v>
       </c>
       <c r="R2" t="n">
-        <v>121.2514977305383</v>
+        <v>121.2514977305389</v>
       </c>
       <c r="S2" t="n">
-        <v>43.98572828741992</v>
+        <v>43.98572828742015</v>
       </c>
       <c r="T2" t="n">
-        <v>8.449699421971721</v>
+        <v>8.449699421971767</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1544205491165591</v>
+        <v>0.1544205491165599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.032778472069063</v>
+        <v>1.032778472069069</v>
       </c>
       <c r="H3" t="n">
-        <v>9.974465769719638</v>
+        <v>9.974465769719691</v>
       </c>
       <c r="I3" t="n">
-        <v>35.55838160413222</v>
+        <v>35.55838160413241</v>
       </c>
       <c r="J3" t="n">
-        <v>97.57491695982321</v>
+        <v>97.57491695982372</v>
       </c>
       <c r="K3" t="n">
-        <v>166.7710745884504</v>
+        <v>166.7710745884513</v>
       </c>
       <c r="L3" t="n">
-        <v>224.2442906130657</v>
+        <v>224.2442906130669</v>
       </c>
       <c r="M3" t="n">
-        <v>261.6825102255692</v>
+        <v>261.6825102255705</v>
       </c>
       <c r="N3" t="n">
-        <v>268.6084676106288</v>
+        <v>268.6084676106303</v>
       </c>
       <c r="O3" t="n">
-        <v>245.7242709400459</v>
+        <v>245.7242709400472</v>
       </c>
       <c r="P3" t="n">
-        <v>197.2153908637845</v>
+        <v>197.2153908637856</v>
       </c>
       <c r="Q3" t="n">
-        <v>131.8332660135878</v>
+        <v>131.8332660135885</v>
       </c>
       <c r="R3" t="n">
-        <v>64.12285987109502</v>
+        <v>64.12285987109536</v>
       </c>
       <c r="S3" t="n">
-        <v>19.18340714566877</v>
+        <v>19.18340714566887</v>
       </c>
       <c r="T3" t="n">
-        <v>4.162821999260827</v>
+        <v>4.162821999260849</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06794595210980681</v>
+        <v>0.06794595210980717</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8658467777052973</v>
+        <v>0.8658467777053018</v>
       </c>
       <c r="H4" t="n">
-        <v>7.698164987234375</v>
+        <v>7.698164987234416</v>
       </c>
       <c r="I4" t="n">
-        <v>26.03837400590113</v>
+        <v>26.03837400590127</v>
       </c>
       <c r="J4" t="n">
-        <v>61.21536718376451</v>
+        <v>61.21536718376484</v>
       </c>
       <c r="K4" t="n">
-        <v>100.59565290067</v>
+        <v>100.5956529006705</v>
       </c>
       <c r="L4" t="n">
-        <v>128.7278018417494</v>
+        <v>128.7278018417501</v>
       </c>
       <c r="M4" t="n">
-        <v>135.7254180724767</v>
+        <v>135.7254180724774</v>
       </c>
       <c r="N4" t="n">
-        <v>132.4981709919389</v>
+        <v>132.4981709919396</v>
       </c>
       <c r="O4" t="n">
-        <v>122.3835063614724</v>
+        <v>122.3835063614731</v>
       </c>
       <c r="P4" t="n">
-        <v>104.7202320962843</v>
+        <v>104.7202320962848</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.50286063130449</v>
+        <v>72.50286063130487</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93161965936726</v>
+        <v>38.93161965936747</v>
       </c>
       <c r="S4" t="n">
-        <v>15.08934793510049</v>
+        <v>15.08934793510057</v>
       </c>
       <c r="T4" t="n">
-        <v>3.699527141104451</v>
+        <v>3.699527141104471</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04722800605665263</v>
+        <v>0.04722800605665288</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485655</v>
+        <v>4.873046301485645</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508997</v>
+        <v>49.90608543508987</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380259</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307184</v>
+        <v>413.5937135307176</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726063</v>
+        <v>619.8697634726051</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216981</v>
+        <v>769.0032542216965</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857436</v>
+        <v>855.6642913857418</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898398</v>
+        <v>869.509834189838</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294417</v>
+        <v>821.05348002944</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615145</v>
+        <v>700.750149461513</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895593</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356985</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951045</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475346</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188523</v>
+        <v>0.3898437041188515</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969426</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191525</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596489</v>
+        <v>89.7692132059647</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783044</v>
+        <v>246.3335823783039</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202559</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845338</v>
+        <v>660.6327957845324</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147148</v>
+        <v>237.3367583732593</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431816</v>
+        <v>620.3452877431804</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205476</v>
+        <v>497.8817840205466</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.820787407185</v>
+        <v>332.8207874071843</v>
       </c>
       <c r="R12" t="n">
-        <v>148.6643286576349</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697592</v>
+        <v>48.42963285697582</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190412</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236087</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737177</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691798</v>
+        <v>65.73539745691785</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836914</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619744</v>
+        <v>253.9596068619739</v>
       </c>
       <c r="L13" t="n">
-        <v>324.980861550918</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263713</v>
+        <v>342.6467528263706</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973098</v>
+        <v>334.4993788973091</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050063</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761899</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916782</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570622</v>
+        <v>98.28514988570602</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929616</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826915</v>
+        <v>9.339672552826896</v>
       </c>
       <c r="U13" t="n">
-        <v>0.119229862376514</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>306.4674191928274</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>357.2897453669905</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,22 +32312,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32555,10 +32555,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>151.8788491526571</v>
+        <v>151.8788491526579</v>
       </c>
       <c r="K2" t="n">
-        <v>265.3476295165931</v>
+        <v>349.5914730847545</v>
       </c>
       <c r="L2" t="n">
-        <v>486.5038096393559</v>
+        <v>486.5038096393575</v>
       </c>
       <c r="M2" t="n">
-        <v>558.1035158288475</v>
+        <v>558.1035158288494</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3544186933989</v>
+        <v>269.6552484221381</v>
       </c>
       <c r="O2" t="n">
-        <v>475.9285360280919</v>
+        <v>475.9285360280936</v>
       </c>
       <c r="P2" t="n">
-        <v>46.34035410282559</v>
+        <v>46.34035410282706</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>198.4553267030917</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.82832563356536</v>
+        <v>96.82832563356587</v>
       </c>
       <c r="K3" t="n">
-        <v>293.39487262667</v>
+        <v>28.92963561409232</v>
       </c>
       <c r="L3" t="n">
-        <v>456.5302561366507</v>
+        <v>456.5302561366518</v>
       </c>
       <c r="M3" t="n">
-        <v>585.2535400535508</v>
+        <v>585.2535400535521</v>
       </c>
       <c r="N3" t="n">
-        <v>225.7560206496108</v>
+        <v>616.6091298708504</v>
       </c>
       <c r="O3" t="n">
-        <v>496.990345772331</v>
+        <v>487.1364625401861</v>
       </c>
       <c r="P3" t="n">
-        <v>381.7037520893915</v>
+        <v>63.24098344945534</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>201.9287796634161</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>78.32616107478711</v>
+        <v>78.32616107478765</v>
       </c>
       <c r="L4" t="n">
-        <v>156.3178271020655</v>
+        <v>156.3178271020662</v>
       </c>
       <c r="M4" t="n">
-        <v>175.3092950343173</v>
+        <v>175.309295034318</v>
       </c>
       <c r="N4" t="n">
-        <v>176.6303433711675</v>
+        <v>176.6303433711682</v>
       </c>
       <c r="O4" t="n">
-        <v>146.9686342755121</v>
+        <v>146.9686342755128</v>
       </c>
       <c r="P4" t="n">
-        <v>101.9987913611778</v>
+        <v>101.9987913611783</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>486.1430767451264</v>
       </c>
       <c r="N5" t="n">
-        <v>281.540005344388</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
@@ -34954,7 +34954,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>570.6590628673317</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>226.3237424866525</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215495</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>466.4238188159148</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040322</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276258</v>
+        <v>399.7799124276245</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517108</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584709</v>
+        <v>625.3180581584691</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932489</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.955268607755</v>
+        <v>590.9552686077533</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706245</v>
+        <v>469.5171537062435</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151098</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156638</v>
+        <v>90.52095692156576</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116377</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458969</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625155</v>
+        <v>518.4987618625141</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313816</v>
+        <v>105.995046289926</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987372</v>
+        <v>477.749043298736</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062174</v>
+        <v>363.9073766062164</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211635</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>2.984824693670945</v>
+        <v>16.20240458936556</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701858</v>
+        <v>61.18259316701824</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360916</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112341</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882119</v>
+        <v>382.2306297882112</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765384</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.549444619046</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410834</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.8756671399838</v>
+        <v>96.87566713998341</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>164.3333852708091</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>214.6935009225461</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
